--- a/Files/Fraud_min.xlsx
+++ b/Files/Fraud_min.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -559,39 +559,39 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>category</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>entertainment</t>
-        </is>
+          <t>unix_time</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1577817239</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>amt</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>entertainment</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>is_fraud</t>
+          <t>amt</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>distance_km</t>
+          <t>is_fraud</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -601,27 +601,27 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>age</t>
+          <t>distance_km</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>trans_month</t>
+          <t>age</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>trans_day</t>
+          <t>trans_month</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -631,22 +631,32 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>is_weekend</t>
+          <t>trans_day</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
+          <t>is_weekend</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
           <t>trans_time_group</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Day</t>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
         </is>
       </c>
     </row>
